--- a/311-préparation-release-403/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/311-préparation-release-403/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T14:56:29+00:00</t>
+    <t>2025-01-30T12:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/311-préparation-release-403/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/311-préparation-release-403/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T12:49:37+00:00</t>
+    <t>2025-01-30T14:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
